--- a/_data/uj/temporal/Juridica.xlsx
+++ b/_data/uj/temporal/Juridica.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acueto\Desktop\BASE DE DATOS SENASIR_v2\ABRIL\UJ\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acueto\Desktop\MAYO\UJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9255" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="JUR" sheetId="4" r:id="rId1"/>
@@ -1301,67 +1301,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="13" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1386,7 +1328,65 @@
     <xf numFmtId="4" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1787,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -1800,7 +1800,9 @@
     <col min="4" max="4" width="27.125" style="107" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="107" customWidth="1"/>
     <col min="6" max="7" width="12.75" style="107" customWidth="1"/>
-    <col min="8" max="16384" width="11" style="107"/>
+    <col min="8" max="8" width="11" style="107"/>
+    <col min="9" max="9" width="12.25" style="107" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="107"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -1901,7 +1903,7 @@
       </c>
       <c r="I2" s="108">
         <f>+'2024'!G12</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J2" s="108">
         <f>+'2024'!H12</f>
@@ -1967,7 +1969,7 @@
       </c>
       <c r="I3" s="108">
         <f>+'2024'!G13</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J3" s="108">
         <f>+'2024'!H13</f>
@@ -2033,7 +2035,7 @@
       </c>
       <c r="I4" s="108">
         <f>+'2024'!G14</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="108">
         <f>+'2024'!H14</f>
@@ -2099,7 +2101,7 @@
       </c>
       <c r="I5" s="108">
         <f>+'2024'!G15</f>
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="J5" s="108">
         <f>+'2024'!H15</f>
@@ -2165,7 +2167,7 @@
       </c>
       <c r="I6" s="108">
         <f>+'2024'!G16</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" s="108">
         <f>+'2024'!H16</f>
@@ -2363,7 +2365,7 @@
       </c>
       <c r="I9" s="108">
         <f>+'2024'!G20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="108">
         <f>+'2024'!H20</f>
@@ -2759,7 +2761,7 @@
       </c>
       <c r="I15" s="115">
         <f>+'2024'!G27</f>
-        <v>0</v>
+        <v>2945.68</v>
       </c>
       <c r="J15" s="115">
         <f>+'2024'!H27</f>
@@ -2892,7 +2894,7 @@
       </c>
       <c r="I17" s="107">
         <f>+'2024'!G30</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" s="107">
         <f>+'2024'!H30</f>
@@ -3024,7 +3026,7 @@
       </c>
       <c r="I19" s="107">
         <f>+'2024'!G38</f>
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="J19" s="107">
         <f>+'2024'!H38</f>
@@ -3156,7 +3158,7 @@
       </c>
       <c r="I21" s="115">
         <f>+'2024'!G45</f>
-        <v>0</v>
+        <v>120564.27</v>
       </c>
       <c r="J21" s="115">
         <f>+'2024'!H45</f>
@@ -3288,7 +3290,7 @@
       </c>
       <c r="I23" s="115">
         <f>+'2024'!G48</f>
-        <v>0</v>
+        <v>172212.3</v>
       </c>
       <c r="J23" s="115">
         <f>+'2024'!H48</f>
@@ -3350,11 +3352,11 @@
       </c>
       <c r="H24" s="115">
         <f>+'2024'!F49</f>
-        <v>706068.06</v>
+        <v>986609.39</v>
       </c>
       <c r="I24" s="115">
         <f>+'2024'!G49</f>
-        <v>0</v>
+        <v>1504191.36</v>
       </c>
       <c r="J24" s="115">
         <f>+'2024'!H49</f>
@@ -3553,7 +3555,7 @@
       </c>
       <c r="I27" s="107">
         <f>+'2024'!G55</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="J27" s="107">
         <f>+'2024'!H55</f>
@@ -3619,7 +3621,7 @@
       </c>
       <c r="I28" s="107">
         <f>+'2024'!G56</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="J28" s="107">
         <f>+'2024'!H56</f>
@@ -3685,7 +3687,7 @@
       </c>
       <c r="I29" s="107">
         <f>+'2024'!W12</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J29" s="107">
         <f>+'2024'!X12</f>
@@ -3751,7 +3753,7 @@
       </c>
       <c r="I30" s="107">
         <f>+'2024'!W13</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J30" s="107">
         <f>+'2024'!X13</f>
@@ -3817,7 +3819,7 @@
       </c>
       <c r="I31" s="107">
         <f>+'2024'!W15</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" s="107">
         <f>+'2024'!X15</f>
@@ -3883,7 +3885,7 @@
       </c>
       <c r="I32" s="107">
         <f>+'2024'!W16</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" s="107">
         <f>+'2024'!X16</f>
@@ -3949,7 +3951,7 @@
       </c>
       <c r="I33" s="107">
         <f>+'2024'!W17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="107">
         <f>+'2024'!X17</f>
@@ -4015,7 +4017,7 @@
       </c>
       <c r="I34" s="107">
         <f>+'2024'!W19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="107">
         <f>+'2024'!X19</f>
@@ -4081,7 +4083,7 @@
       </c>
       <c r="I35" s="107">
         <f>+'2024'!W20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="107">
         <f>+'2024'!X20</f>
@@ -4147,7 +4149,7 @@
       </c>
       <c r="I36" s="107">
         <f>+'2024'!W22</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J36" s="107">
         <f>+'2024'!X22</f>
@@ -4213,7 +4215,7 @@
       </c>
       <c r="I37" s="107">
         <f>+'2024'!W23</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J37" s="107">
         <f>+'2024'!X23</f>
@@ -4279,7 +4281,7 @@
       </c>
       <c r="I38" s="107">
         <f>+'2024'!W24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="107">
         <f>+'2024'!X24</f>
@@ -4411,7 +4413,7 @@
       </c>
       <c r="I40" s="107">
         <f>+'2024'!W27</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J40" s="107">
         <f>+'2024'!X27</f>
@@ -4477,7 +4479,7 @@
       </c>
       <c r="I41" s="107">
         <f>+'2024'!W28</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J41" s="107">
         <f>+'2024'!X28</f>
@@ -4543,7 +4545,7 @@
       </c>
       <c r="I42" s="107">
         <f>+'2024'!W29</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="J42" s="107">
         <f>+'2024'!X29</f>
@@ -4609,7 +4611,7 @@
       </c>
       <c r="I43" s="107">
         <f>+'2024'!W32</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J43" s="107">
         <f>+'2024'!X32</f>
@@ -4675,7 +4677,7 @@
       </c>
       <c r="I44" s="107">
         <f>+'2024'!W37</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J44" s="107">
         <f>+'2024'!X37</f>
@@ -4741,7 +4743,7 @@
       </c>
       <c r="I45" s="107">
         <f>+'2024'!W38</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J45" s="107">
         <f>+'2024'!X38</f>
@@ -4807,7 +4809,7 @@
       </c>
       <c r="I46" s="107">
         <f>+'2024'!W39</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J46" s="107">
         <f>+'2024'!X39</f>
@@ -4873,7 +4875,7 @@
       </c>
       <c r="I47" s="107">
         <f>+'2024'!W40</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" s="107">
         <f>+'2024'!X40</f>
@@ -5005,7 +5007,7 @@
       </c>
       <c r="I49" s="107">
         <f>+'2024'!W42</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J49" s="107">
         <f>+'2024'!X42</f>
@@ -5071,7 +5073,7 @@
       </c>
       <c r="I50" s="107">
         <f>+'2024'!W43</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J50" s="107">
         <f>+'2024'!X43</f>
@@ -5185,8 +5187,8 @@
   </sheetPr>
   <dimension ref="A1:AE999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB40" sqref="AB40"/>
+    <sheetView topLeftCell="N19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z49" sqref="Z49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -5196,7 +5198,7 @@
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="9" max="10" width="11.25" customWidth="1"/>
     <col min="11" max="11" width="12.25" customWidth="1"/>
@@ -5344,74 +5346,74 @@
       <c r="AE4" s="2"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A5" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="124"/>
+      <c r="A5" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="156"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="123"/>
-      <c r="U5" s="123"/>
-      <c r="V5" s="123"/>
-      <c r="W5" s="123"/>
-      <c r="X5" s="123"/>
-      <c r="Y5" s="123"/>
-      <c r="Z5" s="123"/>
-      <c r="AA5" s="123"/>
-      <c r="AB5" s="123"/>
-      <c r="AC5" s="123"/>
-      <c r="AD5" s="123"/>
-      <c r="AE5" s="124"/>
+      <c r="Q5" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="155"/>
+      <c r="S5" s="155"/>
+      <c r="T5" s="155"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="155"/>
+      <c r="W5" s="155"/>
+      <c r="X5" s="155"/>
+      <c r="Y5" s="155"/>
+      <c r="Z5" s="155"/>
+      <c r="AA5" s="155"/>
+      <c r="AB5" s="155"/>
+      <c r="AC5" s="155"/>
+      <c r="AD5" s="155"/>
+      <c r="AE5" s="156"/>
     </row>
     <row r="6" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A6" s="125"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="127"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="158"/>
+      <c r="O6" s="159"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="127"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="158"/>
+      <c r="S6" s="158"/>
+      <c r="T6" s="158"/>
+      <c r="U6" s="158"/>
+      <c r="V6" s="158"/>
+      <c r="W6" s="158"/>
+      <c r="X6" s="158"/>
+      <c r="Y6" s="158"/>
+      <c r="Z6" s="158"/>
+      <c r="AA6" s="158"/>
+      <c r="AB6" s="158"/>
+      <c r="AC6" s="158"/>
+      <c r="AD6" s="158"/>
+      <c r="AE6" s="159"/>
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1">
       <c r="A7" s="2"/>
@@ -5447,45 +5449,45 @@
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A8" s="128" t="s">
+      <c r="A8" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="129"/>
-      <c r="O8" s="130"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="118"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="128" t="s">
+      <c r="Q8" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="R8" s="129"/>
-      <c r="S8" s="129"/>
-      <c r="T8" s="129"/>
-      <c r="U8" s="129"/>
-      <c r="V8" s="129"/>
-      <c r="W8" s="129"/>
-      <c r="X8" s="129"/>
-      <c r="Y8" s="129"/>
-      <c r="Z8" s="129"/>
-      <c r="AA8" s="129"/>
-      <c r="AB8" s="129"/>
-      <c r="AC8" s="129"/>
-      <c r="AD8" s="129"/>
-      <c r="AE8" s="130"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="117"/>
+      <c r="Z8" s="117"/>
+      <c r="AA8" s="117"/>
+      <c r="AB8" s="117"/>
+      <c r="AC8" s="117"/>
+      <c r="AD8" s="117"/>
+      <c r="AE8" s="118"/>
     </row>
     <row r="9" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A9" s="131"/>
-      <c r="B9" s="132"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -5500,8 +5502,8 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="132"/>
+      <c r="Q9" s="132"/>
+      <c r="R9" s="133"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -5521,41 +5523,41 @@
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="116">
+      <c r="C10" s="136">
         <v>2024</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="118"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="138"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="S10" s="119">
+      <c r="S10" s="153">
         <v>2024</v>
       </c>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="120"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="120"/>
-      <c r="AB10" s="120"/>
-      <c r="AC10" s="120"/>
-      <c r="AD10" s="120"/>
-      <c r="AE10" s="121"/>
+      <c r="T10" s="143"/>
+      <c r="U10" s="143"/>
+      <c r="V10" s="143"/>
+      <c r="W10" s="143"/>
+      <c r="X10" s="143"/>
+      <c r="Y10" s="143"/>
+      <c r="Z10" s="143"/>
+      <c r="AA10" s="143"/>
+      <c r="AB10" s="143"/>
+      <c r="AC10" s="143"/>
+      <c r="AD10" s="143"/>
+      <c r="AE10" s="150"/>
     </row>
     <row r="11" spans="1:31" ht="16.5" customHeight="1">
       <c r="A11" s="3" t="s">
@@ -5651,7 +5653,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" ht="52.5" customHeight="1">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="144" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -5669,7 +5671,9 @@
       <c r="F12" s="9">
         <v>17</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="9">
+        <v>15</v>
+      </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -5679,10 +5683,10 @@
       <c r="N12" s="10"/>
       <c r="O12" s="13">
         <f>SUM(C12:N12)</f>
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="P12" s="2"/>
-      <c r="Q12" s="138" t="s">
+      <c r="Q12" s="147" t="s">
         <v>2</v>
       </c>
       <c r="R12" s="12" t="s">
@@ -5700,7 +5704,9 @@
       <c r="V12" s="9">
         <v>28</v>
       </c>
-      <c r="W12" s="9"/>
+      <c r="W12" s="9">
+        <v>19</v>
+      </c>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
@@ -5710,11 +5716,11 @@
       <c r="AD12" s="13"/>
       <c r="AE12" s="13">
         <f>SUM(S12:AD12)</f>
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="39" customHeight="1">
-      <c r="A13" s="136"/>
+      <c r="A13" s="145"/>
       <c r="B13" s="14" t="s">
         <v>22</v>
       </c>
@@ -5730,7 +5736,9 @@
       <c r="F13" s="9">
         <v>4</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9">
+        <v>15</v>
+      </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -5740,10 +5748,10 @@
       <c r="N13" s="10"/>
       <c r="O13" s="13">
         <f>SUM(C13:N13)</f>
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="P13" s="2"/>
-      <c r="Q13" s="139"/>
+      <c r="Q13" s="148"/>
       <c r="R13" s="12" t="s">
         <v>23</v>
       </c>
@@ -5759,7 +5767,9 @@
       <c r="V13" s="9">
         <v>24</v>
       </c>
-      <c r="W13" s="9"/>
+      <c r="W13" s="9">
+        <v>29</v>
+      </c>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
@@ -5769,11 +5779,11 @@
       <c r="AD13" s="13"/>
       <c r="AE13" s="13">
         <f>SUM(S13:AD13)</f>
-        <v>95</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="22.5" customHeight="1">
-      <c r="A14" s="136"/>
+      <c r="A14" s="145"/>
       <c r="B14" s="14" t="s">
         <v>24</v>
       </c>
@@ -5789,7 +5799,9 @@
       <c r="F14" s="9">
         <v>6</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="9">
+        <v>4</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -5799,13 +5811,13 @@
       <c r="N14" s="10"/>
       <c r="O14" s="13">
         <f>SUM(C14:N14)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P14" s="2"/>
-      <c r="Q14" s="140" t="s">
+      <c r="Q14" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="R14" s="121"/>
+      <c r="R14" s="150"/>
       <c r="S14" s="15">
         <f t="shared" ref="S14:AE14" si="0">SUM(S12:S13)</f>
         <v>28</v>
@@ -5824,7 +5836,7 @@
       </c>
       <c r="W14" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="X14" s="15">
         <f t="shared" si="0"/>
@@ -5856,11 +5868,11 @@
       </c>
       <c r="AE14" s="15">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="44.25" customHeight="1">
-      <c r="A15" s="136"/>
+      <c r="A15" s="145"/>
       <c r="B15" s="14" t="s">
         <v>25</v>
       </c>
@@ -5876,7 +5888,9 @@
       <c r="F15" s="9">
         <v>103</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="9">
+        <v>116</v>
+      </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -5886,7 +5900,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="13">
         <f>SUM(C15:N15)</f>
-        <v>397</v>
+        <v>513</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="16" t="s">
@@ -5907,7 +5921,9 @@
       <c r="V15" s="9">
         <v>9</v>
       </c>
-      <c r="W15" s="9"/>
+      <c r="W15" s="9">
+        <v>2</v>
+      </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
@@ -5917,11 +5933,11 @@
       <c r="AD15" s="13"/>
       <c r="AE15" s="13">
         <f>SUM(S15:AD15)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="28.5">
-      <c r="A16" s="137"/>
+      <c r="A16" s="146"/>
       <c r="B16" s="14" t="s">
         <v>28</v>
       </c>
@@ -5937,7 +5953,9 @@
       <c r="F16" s="9">
         <v>1</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="9">
+        <v>4</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
       <c r="J16" s="9"/>
@@ -5947,7 +5965,7 @@
       <c r="N16" s="10"/>
       <c r="O16" s="13">
         <f>SUM(C16:N16)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="18"/>
@@ -5966,7 +5984,9 @@
       <c r="V16" s="9">
         <v>11</v>
       </c>
-      <c r="W16" s="9"/>
+      <c r="W16" s="9">
+        <v>3</v>
+      </c>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="10"/>
@@ -5976,14 +5996,14 @@
       <c r="AD16" s="13"/>
       <c r="AE16" s="13">
         <f>SUM(S16:AD16)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="16.5">
-      <c r="A17" s="133" t="s">
+      <c r="A17" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="118"/>
+      <c r="B17" s="138"/>
       <c r="C17" s="19">
         <f t="shared" ref="C17:O17" si="1">SUM(C12:C16)</f>
         <v>163</v>
@@ -6002,7 +6022,7 @@
       </c>
       <c r="G17" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="H17" s="20">
         <f t="shared" si="1"/>
@@ -6034,7 +6054,7 @@
       </c>
       <c r="O17" s="20">
         <f t="shared" si="1"/>
-        <v>594</v>
+        <v>748</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="18"/>
@@ -6053,7 +6073,9 @@
       <c r="V17" s="9">
         <v>2</v>
       </c>
-      <c r="W17" s="9"/>
+      <c r="W17" s="9">
+        <v>1</v>
+      </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
@@ -6063,11 +6085,11 @@
       <c r="AD17" s="13"/>
       <c r="AE17" s="13">
         <f>SUM(S17:AD17)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="16.5">
-      <c r="A18" s="141" t="s">
+      <c r="A18" s="151" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -6085,7 +6107,9 @@
       <c r="F18" s="9">
         <v>2</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -6098,10 +6122,10 @@
         <v>2</v>
       </c>
       <c r="P18" s="2"/>
-      <c r="Q18" s="140" t="s">
+      <c r="Q18" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="R18" s="121"/>
+      <c r="R18" s="150"/>
       <c r="S18" s="15">
         <f t="shared" ref="S18:AE18" si="3">SUM(S15:S17)</f>
         <v>14</v>
@@ -6120,7 +6144,7 @@
       </c>
       <c r="W18" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X18" s="21">
         <f t="shared" si="3"/>
@@ -6152,11 +6176,11 @@
       </c>
       <c r="AE18" s="15">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="16.5">
-      <c r="A19" s="136"/>
+      <c r="A19" s="145"/>
       <c r="B19" s="14" t="s">
         <v>33</v>
       </c>
@@ -6172,7 +6196,9 @@
       <c r="F19" s="9">
         <v>0</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -6185,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="2"/>
-      <c r="Q19" s="138" t="s">
+      <c r="Q19" s="147" t="s">
         <v>34</v>
       </c>
       <c r="R19" s="12" t="s">
@@ -6203,7 +6229,9 @@
       <c r="V19" s="9">
         <v>4</v>
       </c>
-      <c r="W19" s="9"/>
+      <c r="W19" s="9">
+        <v>1</v>
+      </c>
       <c r="X19" s="10"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="10"/>
@@ -6213,11 +6241,11 @@
       <c r="AD19" s="13"/>
       <c r="AE19" s="13">
         <f>SUM(S19:AD19)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A20" s="136"/>
+      <c r="A20" s="145"/>
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
@@ -6233,7 +6261,9 @@
       <c r="F20" s="9">
         <v>0</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -6243,10 +6273,10 @@
       <c r="N20" s="9"/>
       <c r="O20" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2"/>
-      <c r="Q20" s="139"/>
+      <c r="Q20" s="148"/>
       <c r="R20" s="12" t="s">
         <v>36</v>
       </c>
@@ -6262,7 +6292,9 @@
       <c r="V20" s="9">
         <v>4</v>
       </c>
-      <c r="W20" s="9"/>
+      <c r="W20" s="9">
+        <v>1</v>
+      </c>
       <c r="X20" s="10"/>
       <c r="Y20" s="9"/>
       <c r="Z20" s="10"/>
@@ -6272,11 +6304,11 @@
       <c r="AD20" s="13"/>
       <c r="AE20" s="13">
         <f>SUM(S20:AD20)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A21" s="136"/>
+      <c r="A21" s="145"/>
       <c r="B21" s="14" t="s">
         <v>37</v>
       </c>
@@ -6292,7 +6324,9 @@
       <c r="F21" s="9">
         <v>1</v>
       </c>
-      <c r="G21" s="9"/>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -6305,10 +6339,10 @@
         <v>1</v>
       </c>
       <c r="P21" s="2"/>
-      <c r="Q21" s="140" t="s">
+      <c r="Q21" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="R21" s="121"/>
+      <c r="R21" s="150"/>
       <c r="S21" s="44">
         <f t="shared" ref="S21:AE21" si="4">SUM(S19:S20)</f>
         <v>14</v>
@@ -6327,7 +6361,7 @@
       </c>
       <c r="W21" s="44">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X21" s="44">
         <f t="shared" si="4"/>
@@ -6359,11 +6393,11 @@
       </c>
       <c r="AE21" s="15">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A22" s="136"/>
+      <c r="A22" s="145"/>
       <c r="B22" s="14" t="s">
         <v>38</v>
       </c>
@@ -6379,7 +6413,9 @@
       <c r="F22" s="9">
         <v>0</v>
       </c>
-      <c r="G22" s="9"/>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -6410,7 +6446,9 @@
       <c r="V22" s="9">
         <v>15</v>
       </c>
-      <c r="W22" s="9"/>
+      <c r="W22" s="9">
+        <v>21</v>
+      </c>
       <c r="X22" s="10"/>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
@@ -6420,11 +6458,11 @@
       <c r="AD22" s="13"/>
       <c r="AE22" s="13">
         <f>SUM(S22:AD22)</f>
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A23" s="136"/>
+      <c r="A23" s="145"/>
       <c r="B23" s="14" t="s">
         <v>41</v>
       </c>
@@ -6440,7 +6478,9 @@
       <c r="F23" s="9">
         <v>0</v>
       </c>
-      <c r="G23" s="9"/>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -6469,7 +6509,9 @@
       <c r="V23" s="9">
         <v>9</v>
       </c>
-      <c r="W23" s="9"/>
+      <c r="W23" s="9">
+        <v>7</v>
+      </c>
       <c r="X23" s="10"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
@@ -6479,11 +6521,11 @@
       <c r="AD23" s="13"/>
       <c r="AE23" s="13">
         <f>SUM(S23:AD23)</f>
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A24" s="136"/>
+      <c r="A24" s="145"/>
       <c r="B24" s="14" t="s">
         <v>43</v>
       </c>
@@ -6499,7 +6541,9 @@
       <c r="F24" s="9">
         <v>0</v>
       </c>
-      <c r="G24" s="9"/>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -6528,7 +6572,9 @@
       <c r="V24" s="9">
         <v>0</v>
       </c>
-      <c r="W24" s="9"/>
+      <c r="W24" s="9">
+        <v>1</v>
+      </c>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
@@ -6538,11 +6584,11 @@
       <c r="AD24" s="23"/>
       <c r="AE24" s="13">
         <f>SUM(S24:AD24)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A25" s="137"/>
+      <c r="A25" s="146"/>
       <c r="B25" s="14" t="s">
         <v>45</v>
       </c>
@@ -6558,7 +6604,9 @@
       <c r="F25" s="9">
         <v>0</v>
       </c>
-      <c r="G25" s="9"/>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -6587,7 +6635,9 @@
       <c r="V25" s="9">
         <v>0</v>
       </c>
-      <c r="W25" s="9"/>
+      <c r="W25" s="9">
+        <v>0</v>
+      </c>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
@@ -6601,10 +6651,10 @@
       </c>
     </row>
     <row r="26" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A26" s="133" t="s">
+      <c r="A26" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="118"/>
+      <c r="B26" s="138"/>
       <c r="C26" s="25">
         <v>0</v>
       </c>
@@ -6620,7 +6670,7 @@
       </c>
       <c r="G26" s="26">
         <f t="shared" ref="G26:O26" si="5">SUM(G18:G25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="26">
         <f t="shared" si="5"/>
@@ -6652,13 +6702,13 @@
       </c>
       <c r="O26" s="26">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P26" s="2"/>
-      <c r="Q26" s="140" t="s">
+      <c r="Q26" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="R26" s="121"/>
+      <c r="R26" s="150"/>
       <c r="S26" s="15">
         <f t="shared" ref="S26:AE26" si="6">SUM(S22:S25)</f>
         <v>17</v>
@@ -6677,7 +6727,7 @@
       </c>
       <c r="W26" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="X26" s="15">
         <f t="shared" si="6"/>
@@ -6709,7 +6759,7 @@
       </c>
       <c r="AE26" s="15">
         <f t="shared" si="6"/>
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="16.5" customHeight="1">
@@ -6728,10 +6778,12 @@
       <c r="E27" s="30">
         <v>26939.47</v>
       </c>
-      <c r="F27" s="159">
+      <c r="F27" s="116">
         <v>2945.68</v>
       </c>
-      <c r="G27" s="31"/>
+      <c r="G27" s="31">
+        <v>2945.68</v>
+      </c>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
@@ -6741,10 +6793,10 @@
       <c r="N27" s="33"/>
       <c r="O27" s="33">
         <f>SUM(C27:N27)</f>
-        <v>38026.51</v>
+        <v>40972.19</v>
       </c>
       <c r="P27" s="2"/>
-      <c r="Q27" s="138" t="s">
+      <c r="Q27" s="147" t="s">
         <v>49</v>
       </c>
       <c r="R27" s="12" t="s">
@@ -6762,7 +6814,9 @@
       <c r="V27" s="9">
         <v>37</v>
       </c>
-      <c r="W27" s="9"/>
+      <c r="W27" s="9">
+        <v>39</v>
+      </c>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
@@ -6772,14 +6826,14 @@
       <c r="AD27" s="13"/>
       <c r="AE27" s="13">
         <f>SUM(S27:AD27)</f>
-        <v>118</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A28" s="133" t="s">
+      <c r="A28" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="118"/>
+      <c r="B28" s="138"/>
       <c r="C28" s="34">
         <f>C27</f>
         <v>4295.68</v>
@@ -6796,7 +6850,10 @@
         <f>+F27</f>
         <v>2945.68</v>
       </c>
-      <c r="G28" s="37"/>
+      <c r="G28" s="36">
+        <f>+G27</f>
+        <v>2945.68</v>
+      </c>
       <c r="H28" s="37"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
@@ -6806,10 +6863,10 @@
       <c r="N28" s="36"/>
       <c r="O28" s="36">
         <f>O27</f>
-        <v>38026.51</v>
+        <v>40972.19</v>
       </c>
       <c r="P28" s="2"/>
-      <c r="Q28" s="142"/>
+      <c r="Q28" s="152"/>
       <c r="R28" s="17" t="s">
         <v>51</v>
       </c>
@@ -6825,7 +6882,9 @@
       <c r="V28" s="9">
         <v>21</v>
       </c>
-      <c r="W28" s="9"/>
+      <c r="W28" s="9">
+        <v>15</v>
+      </c>
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
@@ -6835,7 +6894,7 @@
       <c r="AD28" s="13"/>
       <c r="AE28" s="13">
         <f>SUM(S28:AD28)</f>
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="16.5" customHeight="1">
@@ -6857,7 +6916,9 @@
       <c r="F29" s="9">
         <v>0</v>
       </c>
-      <c r="G29" s="9"/>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -6870,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="P29" s="2"/>
-      <c r="Q29" s="139"/>
+      <c r="Q29" s="148"/>
       <c r="R29" s="12" t="s">
         <v>53</v>
       </c>
@@ -6886,7 +6947,9 @@
       <c r="V29" s="9">
         <v>93</v>
       </c>
-      <c r="W29" s="9"/>
+      <c r="W29" s="9">
+        <v>61</v>
+      </c>
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
@@ -6896,7 +6959,7 @@
       <c r="AD29" s="13"/>
       <c r="AE29" s="13">
         <f>SUM(S29:AD29)</f>
-        <v>352</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="16.5" customHeight="1">
@@ -6916,7 +6979,9 @@
       <c r="F30" s="9">
         <v>2</v>
       </c>
-      <c r="G30" s="9"/>
+      <c r="G30" s="9">
+        <v>4</v>
+      </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -6926,13 +6991,13 @@
       <c r="N30" s="9"/>
       <c r="O30" s="13">
         <f>SUM(C30:N30)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P30" s="2"/>
-      <c r="Q30" s="140" t="s">
+      <c r="Q30" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="R30" s="121"/>
+      <c r="R30" s="150"/>
       <c r="S30" s="44">
         <f t="shared" ref="S30:AE30" si="7">SUM(S27:S29)</f>
         <v>132</v>
@@ -6951,7 +7016,7 @@
       </c>
       <c r="W30" s="44">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="X30" s="44">
         <f t="shared" si="7"/>
@@ -6983,14 +7048,14 @@
       </c>
       <c r="AE30" s="15">
         <f t="shared" si="7"/>
-        <v>555</v>
+        <v>670</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A31" s="133" t="s">
+      <c r="A31" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="118"/>
+      <c r="B31" s="138"/>
       <c r="C31" s="39">
         <v>6</v>
       </c>
@@ -7032,11 +7097,11 @@
       </c>
       <c r="O31" s="38">
         <f>SUM(O29:O30)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P31" s="2"/>
-      <c r="Q31" s="134"/>
-      <c r="R31" s="120"/>
+      <c r="Q31" s="142"/>
+      <c r="R31" s="143"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -7086,7 +7151,9 @@
       <c r="V32" s="9">
         <v>78</v>
       </c>
-      <c r="W32" s="9"/>
+      <c r="W32" s="9">
+        <v>66</v>
+      </c>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
@@ -7096,27 +7163,27 @@
       <c r="AD32" s="10"/>
       <c r="AE32" s="13">
         <f>(S32+T32+U32+V32+X32+W32+Y32+Z32+AA32+AB32+AC32+AD32)</f>
-        <v>301</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A33" s="128" t="s">
+      <c r="A33" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="129"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
-      <c r="N33" s="129"/>
-      <c r="O33" s="130"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="117"/>
+      <c r="O33" s="118"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="43"/>
       <c r="R33" s="43"/>
@@ -7132,7 +7199,9 @@
       <c r="V33" s="9">
         <v>146</v>
       </c>
-      <c r="W33" s="9"/>
+      <c r="W33" s="9">
+        <v>103</v>
+      </c>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
@@ -7142,12 +7211,12 @@
       <c r="AD33" s="10"/>
       <c r="AE33" s="13">
         <f>(S33+T33+U33+V33+X33+W33+Y33+Z33+AA33+AB33+AC33+AD33)</f>
-        <v>520</v>
+        <v>623</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A34" s="131"/>
-      <c r="B34" s="132"/>
+      <c r="A34" s="132"/>
+      <c r="B34" s="133"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -7162,10 +7231,10 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="145" t="s">
+      <c r="Q34" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="R34" s="146"/>
+      <c r="R34" s="135"/>
       <c r="S34" s="15">
         <f t="shared" ref="S34:Y34" si="8">SUM(S32:S33)</f>
         <v>178</v>
@@ -7184,7 +7253,7 @@
       </c>
       <c r="W34" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="X34" s="15">
         <f t="shared" si="8"/>
@@ -7216,7 +7285,7 @@
       </c>
       <c r="AE34" s="45">
         <f>(S34+T34+U34+V34+X34+W34+Y34+Z34+AA34+AB34+AC34+AD34)</f>
-        <v>821</v>
+        <v>990</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="16.5" customHeight="1">
@@ -7224,21 +7293,21 @@
       <c r="B35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="116">
+      <c r="C35" s="136">
         <v>2024</v>
       </c>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="118"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="137"/>
+      <c r="K35" s="137"/>
+      <c r="L35" s="137"/>
+      <c r="M35" s="137"/>
+      <c r="N35" s="137"/>
+      <c r="O35" s="138"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
@@ -7338,7 +7407,9 @@
       <c r="F37" s="13">
         <v>0</v>
       </c>
-      <c r="G37" s="13"/>
+      <c r="G37" s="13">
+        <v>0</v>
+      </c>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
       <c r="J37" s="13"/>
@@ -7367,7 +7438,9 @@
       <c r="V37" s="9">
         <v>17</v>
       </c>
-      <c r="W37" s="9"/>
+      <c r="W37" s="9">
+        <v>23</v>
+      </c>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
@@ -7377,7 +7450,7 @@
       <c r="AD37" s="9"/>
       <c r="AE37" s="13">
         <f t="shared" ref="AE37:AE44" si="10">(S37+T37+U37+V37+X37+W37+Y37+Z37+AA37+AB37+AC37+AD37)</f>
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="16.5" customHeight="1">
@@ -7397,7 +7470,9 @@
       <c r="F38" s="13">
         <v>827</v>
       </c>
-      <c r="G38" s="13"/>
+      <c r="G38" s="13">
+        <v>824</v>
+      </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
@@ -7407,7 +7482,7 @@
       <c r="N38" s="13"/>
       <c r="O38" s="13">
         <f t="shared" si="9"/>
-        <v>3309</v>
+        <v>4133</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="48"/>
@@ -7426,7 +7501,9 @@
       <c r="V38" s="9">
         <v>105</v>
       </c>
-      <c r="W38" s="9"/>
+      <c r="W38" s="9">
+        <v>72</v>
+      </c>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
@@ -7436,7 +7513,7 @@
       <c r="AD38" s="9"/>
       <c r="AE38" s="13">
         <f t="shared" si="10"/>
-        <v>332</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="15.75" customHeight="1">
@@ -7456,7 +7533,9 @@
       <c r="F39" s="13">
         <v>3</v>
       </c>
-      <c r="G39" s="23"/>
+      <c r="G39" s="23">
+        <v>0</v>
+      </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
@@ -7485,7 +7564,9 @@
       <c r="V39" s="9">
         <v>57</v>
       </c>
-      <c r="W39" s="9"/>
+      <c r="W39" s="9">
+        <v>35</v>
+      </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
@@ -7495,7 +7576,7 @@
       <c r="AD39" s="9"/>
       <c r="AE39" s="13">
         <f t="shared" si="10"/>
-        <v>222</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="16.5" customHeight="1">
@@ -7521,7 +7602,7 @@
       </c>
       <c r="G40" s="21">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="H40" s="21">
         <f t="shared" si="11"/>
@@ -7553,7 +7634,7 @@
       </c>
       <c r="O40" s="15">
         <f t="shared" si="9"/>
-        <v>3315</v>
+        <v>4139</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="48"/>
@@ -7572,7 +7653,9 @@
       <c r="V40" s="9">
         <v>2</v>
       </c>
-      <c r="W40" s="9"/>
+      <c r="W40" s="9">
+        <v>2</v>
+      </c>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
@@ -7582,7 +7665,7 @@
       <c r="AD40" s="9"/>
       <c r="AE40" s="13">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:31" ht="16.5" customHeight="1">
@@ -7602,9 +7685,11 @@
         <v>2</v>
       </c>
       <c r="F41" s="13">
+        <v>4</v>
+      </c>
+      <c r="G41" s="13">
         <v>3</v>
       </c>
-      <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
@@ -7614,7 +7699,7 @@
       <c r="N41" s="23"/>
       <c r="O41" s="13">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="48"/>
@@ -7633,7 +7718,9 @@
       <c r="V41" s="9">
         <v>2</v>
       </c>
-      <c r="W41" s="9"/>
+      <c r="W41" s="9">
+        <v>0</v>
+      </c>
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
@@ -7663,7 +7750,9 @@
       <c r="F42" s="13">
         <v>834</v>
       </c>
-      <c r="G42" s="13"/>
+      <c r="G42" s="13">
+        <v>837</v>
+      </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
@@ -7673,7 +7762,7 @@
       <c r="N42" s="13"/>
       <c r="O42" s="13">
         <f t="shared" si="9"/>
-        <v>3338</v>
+        <v>4175</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="48"/>
@@ -7692,7 +7781,9 @@
       <c r="V42" s="9">
         <v>38</v>
       </c>
-      <c r="W42" s="9"/>
+      <c r="W42" s="9">
+        <v>33</v>
+      </c>
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
@@ -7702,7 +7793,7 @@
       <c r="AD42" s="9"/>
       <c r="AE42" s="13">
         <f t="shared" si="10"/>
-        <v>153</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:31" ht="16.5" customHeight="1">
@@ -7722,7 +7813,9 @@
       <c r="F43" s="13">
         <v>0</v>
       </c>
-      <c r="G43" s="13"/>
+      <c r="G43" s="13">
+        <v>0</v>
+      </c>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
@@ -7751,7 +7844,9 @@
       <c r="V43" s="9">
         <v>3</v>
       </c>
-      <c r="W43" s="9"/>
+      <c r="W43" s="9">
+        <v>5</v>
+      </c>
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
@@ -7761,14 +7856,14 @@
       <c r="AD43" s="9"/>
       <c r="AE43" s="13">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A44" s="133" t="s">
+      <c r="A44" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="118"/>
+      <c r="B44" s="138"/>
       <c r="C44" s="51">
         <f t="shared" ref="C44:N44" si="12">SUM(C41:C43)</f>
         <v>837</v>
@@ -7783,11 +7878,11 @@
       </c>
       <c r="F44" s="51">
         <f t="shared" si="12"/>
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G44" s="51">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="H44" s="51">
         <f t="shared" si="12"/>
@@ -7819,7 +7914,7 @@
       </c>
       <c r="O44" s="51">
         <f t="shared" si="9"/>
-        <v>3354</v>
+        <v>4195</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="52"/>
@@ -7838,7 +7933,9 @@
       <c r="V44" s="9">
         <v>0</v>
       </c>
-      <c r="W44" s="9"/>
+      <c r="W44" s="9">
+        <v>0</v>
+      </c>
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
@@ -7852,7 +7949,7 @@
       </c>
     </row>
     <row r="45" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A45" s="147" t="s">
+      <c r="A45" s="140" t="s">
         <v>70</v>
       </c>
       <c r="B45" s="112" t="s">
@@ -7870,7 +7967,9 @@
       <c r="F45" s="33">
         <v>74702.02</v>
       </c>
-      <c r="G45" s="33"/>
+      <c r="G45" s="33">
+        <v>120564.27</v>
+      </c>
       <c r="H45" s="33"/>
       <c r="I45" s="33"/>
       <c r="J45" s="33"/>
@@ -7880,7 +7979,7 @@
       <c r="N45" s="33"/>
       <c r="O45" s="33">
         <f t="shared" si="9"/>
-        <v>529115.78</v>
+        <v>649680.05000000005</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="56"/>
@@ -7900,7 +7999,7 @@
       <c r="AE45" s="2"/>
     </row>
     <row r="46" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A46" s="148"/>
+      <c r="A46" s="141"/>
       <c r="B46" s="28" t="s">
         <v>72</v>
       </c>
@@ -7916,7 +8015,9 @@
       <c r="F46" s="33">
         <v>0</v>
       </c>
-      <c r="G46" s="33"/>
+      <c r="G46" s="33">
+        <v>0</v>
+      </c>
       <c r="H46" s="55"/>
       <c r="I46" s="55"/>
       <c r="J46" s="33"/>
@@ -7946,10 +8047,10 @@
       <c r="AE46" s="2"/>
     </row>
     <row r="47" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A47" s="133" t="s">
+      <c r="A47" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="118"/>
+      <c r="B47" s="138"/>
       <c r="C47" s="57">
         <f t="shared" ref="C47:N47" si="13">SUM(C45:C46)</f>
         <v>294301.36</v>
@@ -7968,7 +8069,7 @@
       </c>
       <c r="G47" s="57">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>120564.27</v>
       </c>
       <c r="H47" s="57">
         <f t="shared" si="13"/>
@@ -8000,7 +8101,7 @@
       </c>
       <c r="O47" s="58">
         <f t="shared" si="9"/>
-        <v>1187540.57</v>
+        <v>1308104.8400000001</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -8038,7 +8139,9 @@
       <c r="F48" s="33">
         <v>234274.17</v>
       </c>
-      <c r="G48" s="33"/>
+      <c r="G48" s="33">
+        <v>172212.3</v>
+      </c>
       <c r="H48" s="33"/>
       <c r="I48" s="33"/>
       <c r="J48" s="33"/>
@@ -8048,7 +8151,7 @@
       <c r="N48" s="33"/>
       <c r="O48" s="33">
         <f t="shared" si="9"/>
-        <v>422978.30000000005</v>
+        <v>595190.60000000009</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -8082,9 +8185,11 @@
         <v>1258255.57</v>
       </c>
       <c r="F49" s="33">
-        <v>706068.06</v>
-      </c>
-      <c r="G49" s="33"/>
+        <v>986609.39</v>
+      </c>
+      <c r="G49" s="33">
+        <v>1504191.36</v>
+      </c>
       <c r="H49" s="33"/>
       <c r="I49" s="33"/>
       <c r="J49" s="33"/>
@@ -8094,7 +8199,7 @@
       <c r="N49" s="33"/>
       <c r="O49" s="33">
         <f t="shared" si="9"/>
-        <v>170136201.84</v>
+        <v>171920934.53</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -8114,10 +8219,10 @@
       <c r="AE49" s="2"/>
     </row>
     <row r="50" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A50" s="133" t="s">
+      <c r="A50" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="118"/>
+      <c r="B50" s="138"/>
       <c r="C50" s="60">
         <f t="shared" ref="C50:N50" si="14">SUM(C48:C49)</f>
         <v>142151433.73000002</v>
@@ -8132,11 +8237,11 @@
       </c>
       <c r="F50" s="62">
         <f t="shared" si="14"/>
-        <v>940342.2300000001</v>
+        <v>1220883.56</v>
       </c>
       <c r="G50" s="62">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1676403.6600000001</v>
       </c>
       <c r="H50" s="62">
         <f t="shared" si="14"/>
@@ -8168,7 +8273,7 @@
       </c>
       <c r="O50" s="62">
         <f t="shared" si="9"/>
-        <v>170559180.14000002</v>
+        <v>172516125.13000003</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -8210,7 +8315,10 @@
         <f>+F45+F48</f>
         <v>308976.19</v>
       </c>
-      <c r="G51" s="64"/>
+      <c r="G51" s="64">
+        <f>+G45+G48</f>
+        <v>292776.57</v>
+      </c>
       <c r="H51" s="64"/>
       <c r="I51" s="64"/>
       <c r="J51" s="64"/>
@@ -8220,7 +8328,7 @@
       <c r="N51" s="64"/>
       <c r="O51" s="65">
         <f t="shared" si="9"/>
-        <v>952094.08000000007</v>
+        <v>1244870.6500000001</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -8258,7 +8366,9 @@
       <c r="F52" s="66">
         <v>0</v>
       </c>
-      <c r="G52" s="67"/>
+      <c r="G52" s="67">
+        <v>0</v>
+      </c>
       <c r="H52" s="66"/>
       <c r="I52" s="67"/>
       <c r="J52" s="67"/>
@@ -8304,7 +8414,9 @@
       <c r="F53" s="23">
         <v>0</v>
       </c>
-      <c r="G53" s="23"/>
+      <c r="G53" s="23">
+        <v>0</v>
+      </c>
       <c r="H53" s="13"/>
       <c r="I53" s="23"/>
       <c r="J53" s="23"/>
@@ -8334,10 +8446,10 @@
       <c r="AE53" s="2"/>
     </row>
     <row r="54" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A54" s="133" t="s">
+      <c r="A54" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="118"/>
+      <c r="B54" s="138"/>
       <c r="C54" s="69">
         <v>3</v>
       </c>
@@ -8414,7 +8526,9 @@
       <c r="F55" s="13">
         <v>119</v>
       </c>
-      <c r="G55" s="13"/>
+      <c r="G55" s="13">
+        <v>111</v>
+      </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
@@ -8424,7 +8538,7 @@
       <c r="N55" s="13"/>
       <c r="O55" s="13">
         <f t="shared" si="9"/>
-        <v>409</v>
+        <v>520</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
@@ -8460,7 +8574,9 @@
       <c r="F56" s="13">
         <v>47</v>
       </c>
-      <c r="G56" s="13"/>
+      <c r="G56" s="13">
+        <v>47</v>
+      </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
@@ -8470,7 +8586,7 @@
       <c r="N56" s="13"/>
       <c r="O56" s="13">
         <f t="shared" si="9"/>
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
@@ -8490,10 +8606,10 @@
       <c r="AE56" s="2"/>
     </row>
     <row r="57" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A57" s="143" t="s">
+      <c r="A57" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="144"/>
+      <c r="B57" s="130"/>
       <c r="C57" s="70">
         <f t="shared" ref="C57:N57" si="15">SUM(C55:C56)</f>
         <v>158</v>
@@ -8512,7 +8628,7 @@
       </c>
       <c r="G57" s="70">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="H57" s="70">
         <f t="shared" si="15"/>
@@ -8544,18 +8660,18 @@
       </c>
       <c r="O57" s="70">
         <f t="shared" si="9"/>
-        <v>590</v>
+        <v>748</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="103"/>
-      <c r="S57" s="129"/>
-      <c r="T57" s="129"/>
-      <c r="U57" s="129"/>
-      <c r="V57" s="129"/>
-      <c r="W57" s="129"/>
-      <c r="X57" s="129"/>
-      <c r="Y57" s="130"/>
+      <c r="S57" s="117"/>
+      <c r="T57" s="117"/>
+      <c r="U57" s="117"/>
+      <c r="V57" s="117"/>
+      <c r="W57" s="117"/>
+      <c r="X57" s="117"/>
+      <c r="Y57" s="118"/>
       <c r="Z57" s="72"/>
       <c r="AA57" s="72"/>
       <c r="AB57" s="72"/>
@@ -8584,13 +8700,13 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="103"/>
-      <c r="S58" s="129"/>
-      <c r="T58" s="129"/>
-      <c r="U58" s="129"/>
-      <c r="V58" s="129"/>
-      <c r="W58" s="129"/>
-      <c r="X58" s="129"/>
-      <c r="Y58" s="130"/>
+      <c r="S58" s="117"/>
+      <c r="T58" s="117"/>
+      <c r="U58" s="117"/>
+      <c r="V58" s="117"/>
+      <c r="W58" s="117"/>
+      <c r="X58" s="117"/>
+      <c r="Y58" s="118"/>
       <c r="Z58" s="72"/>
       <c r="AA58" s="72"/>
       <c r="AB58" s="72"/>
@@ -8658,13 +8774,13 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="103"/>
-      <c r="S60" s="129"/>
-      <c r="T60" s="129"/>
-      <c r="U60" s="129"/>
-      <c r="V60" s="129"/>
-      <c r="W60" s="129"/>
-      <c r="X60" s="129"/>
-      <c r="Y60" s="130"/>
+      <c r="S60" s="117"/>
+      <c r="T60" s="117"/>
+      <c r="U60" s="117"/>
+      <c r="V60" s="117"/>
+      <c r="W60" s="117"/>
+      <c r="X60" s="117"/>
+      <c r="Y60" s="118"/>
       <c r="Z60" s="72"/>
       <c r="AA60" s="72"/>
       <c r="AB60" s="72"/>
@@ -8675,7 +8791,7 @@
     <row r="61" spans="1:31" ht="16.5" hidden="1" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="149" t="s">
+      <c r="C61" s="119" t="s">
         <v>81</v>
       </c>
       <c r="D61" s="79" t="s">
@@ -8704,12 +8820,12 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="105"/>
-      <c r="S61" s="129"/>
-      <c r="T61" s="129"/>
-      <c r="U61" s="129"/>
-      <c r="V61" s="129"/>
-      <c r="W61" s="129"/>
-      <c r="X61" s="130"/>
+      <c r="S61" s="117"/>
+      <c r="T61" s="117"/>
+      <c r="U61" s="117"/>
+      <c r="V61" s="117"/>
+      <c r="W61" s="117"/>
+      <c r="X61" s="118"/>
       <c r="Y61" s="71"/>
       <c r="Z61" s="76"/>
       <c r="AA61" s="76"/>
@@ -8721,7 +8837,7 @@
     <row r="62" spans="1:31" ht="16.5" hidden="1" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="150"/>
+      <c r="C62" s="120"/>
       <c r="D62" s="83" t="s">
         <v>82</v>
       </c>
@@ -8748,13 +8864,13 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="84"/>
-      <c r="S62" s="129"/>
-      <c r="T62" s="129"/>
-      <c r="U62" s="129"/>
-      <c r="V62" s="129"/>
-      <c r="W62" s="129"/>
-      <c r="X62" s="129"/>
-      <c r="Y62" s="130"/>
+      <c r="S62" s="117"/>
+      <c r="T62" s="117"/>
+      <c r="U62" s="117"/>
+      <c r="V62" s="117"/>
+      <c r="W62" s="117"/>
+      <c r="X62" s="117"/>
+      <c r="Y62" s="118"/>
       <c r="Z62" s="72"/>
       <c r="AA62" s="72"/>
       <c r="AB62" s="72"/>
@@ -8827,7 +8943,7 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
-      <c r="R64" s="155"/>
+      <c r="R64" s="125"/>
       <c r="S64" s="90"/>
       <c r="T64" s="90"/>
       <c r="U64" s="90"/>
@@ -8848,19 +8964,19 @@
       <c r="C65" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="D65" s="156" t="s">
+      <c r="D65" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="E65" s="157">
+      <c r="E65" s="127">
         <v>82319.12</v>
       </c>
-      <c r="F65" s="158">
+      <c r="F65" s="128">
         <v>63561.760000000002</v>
       </c>
-      <c r="G65" s="151">
+      <c r="G65" s="121">
         <v>42823.25</v>
       </c>
-      <c r="H65" s="151">
+      <c r="H65" s="121">
         <f>E65+F65+G65</f>
         <v>188704.13</v>
       </c>
@@ -8873,7 +8989,7 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
-      <c r="R65" s="153"/>
+      <c r="R65" s="123"/>
       <c r="S65" s="90"/>
       <c r="T65" s="90"/>
       <c r="U65" s="90"/>
@@ -8894,11 +9010,11 @@
       <c r="C66" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="D66" s="150"/>
-      <c r="E66" s="150"/>
-      <c r="F66" s="150"/>
-      <c r="G66" s="150"/>
-      <c r="H66" s="150"/>
+      <c r="D66" s="120"/>
+      <c r="E66" s="120"/>
+      <c r="F66" s="120"/>
+      <c r="G66" s="120"/>
+      <c r="H66" s="120"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -8908,7 +9024,7 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
-      <c r="R66" s="153"/>
+      <c r="R66" s="123"/>
       <c r="S66" s="94"/>
       <c r="T66" s="94"/>
       <c r="U66" s="94"/>
@@ -8941,7 +9057,7 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
-      <c r="R67" s="153"/>
+      <c r="R67" s="123"/>
       <c r="S67" s="90"/>
       <c r="T67" s="90"/>
       <c r="U67" s="90"/>
@@ -8988,7 +9104,7 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
-      <c r="R68" s="154"/>
+      <c r="R68" s="124"/>
       <c r="S68" s="90"/>
       <c r="T68" s="90"/>
       <c r="U68" s="90"/>
@@ -9050,7 +9166,7 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
-      <c r="R70" s="152"/>
+      <c r="R70" s="122"/>
       <c r="S70" s="94"/>
       <c r="T70" s="94"/>
       <c r="U70" s="94"/>
@@ -9090,7 +9206,7 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
-      <c r="R71" s="153"/>
+      <c r="R71" s="123"/>
       <c r="S71" s="90"/>
       <c r="T71" s="90"/>
       <c r="U71" s="90"/>
@@ -9123,7 +9239,7 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
-      <c r="R72" s="153"/>
+      <c r="R72" s="123"/>
       <c r="S72" s="90"/>
       <c r="T72" s="90"/>
       <c r="U72" s="90"/>
@@ -9156,7 +9272,7 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
-      <c r="R73" s="153"/>
+      <c r="R73" s="123"/>
       <c r="S73" s="94"/>
       <c r="T73" s="94"/>
       <c r="U73" s="94"/>
@@ -9189,7 +9305,7 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
-      <c r="R74" s="153"/>
+      <c r="R74" s="123"/>
       <c r="S74" s="90"/>
       <c r="T74" s="90"/>
       <c r="U74" s="90"/>
@@ -9222,7 +9338,7 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
-      <c r="R75" s="153"/>
+      <c r="R75" s="123"/>
       <c r="S75" s="90"/>
       <c r="T75" s="90"/>
       <c r="U75" s="90"/>
@@ -9255,7 +9371,7 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
-      <c r="R76" s="153"/>
+      <c r="R76" s="123"/>
       <c r="S76" s="90"/>
       <c r="T76" s="96"/>
       <c r="U76" s="96"/>
@@ -9288,7 +9404,7 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
-      <c r="R77" s="154"/>
+      <c r="R77" s="124"/>
       <c r="S77" s="90"/>
       <c r="T77" s="90"/>
       <c r="U77" s="90"/>
@@ -9487,13 +9603,13 @@
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
       <c r="R83" s="104"/>
-      <c r="S83" s="129"/>
-      <c r="T83" s="129"/>
-      <c r="U83" s="129"/>
-      <c r="V83" s="129"/>
-      <c r="W83" s="129"/>
-      <c r="X83" s="129"/>
-      <c r="Y83" s="130"/>
+      <c r="S83" s="117"/>
+      <c r="T83" s="117"/>
+      <c r="U83" s="117"/>
+      <c r="V83" s="117"/>
+      <c r="W83" s="117"/>
+      <c r="X83" s="117"/>
+      <c r="Y83" s="118"/>
       <c r="Z83" s="76"/>
       <c r="AA83" s="76"/>
       <c r="AB83" s="76"/>
@@ -9619,13 +9735,13 @@
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
       <c r="R87" s="84"/>
-      <c r="S87" s="129"/>
-      <c r="T87" s="129"/>
-      <c r="U87" s="129"/>
-      <c r="V87" s="129"/>
-      <c r="W87" s="129"/>
-      <c r="X87" s="129"/>
-      <c r="Y87" s="130"/>
+      <c r="S87" s="117"/>
+      <c r="T87" s="117"/>
+      <c r="U87" s="117"/>
+      <c r="V87" s="117"/>
+      <c r="W87" s="117"/>
+      <c r="X87" s="117"/>
+      <c r="Y87" s="118"/>
       <c r="Z87" s="76"/>
       <c r="AA87" s="76"/>
       <c r="AB87" s="76"/>
@@ -9949,13 +10065,13 @@
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
       <c r="R97" s="101"/>
-      <c r="S97" s="129"/>
-      <c r="T97" s="129"/>
-      <c r="U97" s="129"/>
-      <c r="V97" s="129"/>
-      <c r="W97" s="129"/>
-      <c r="X97" s="129"/>
-      <c r="Y97" s="130"/>
+      <c r="S97" s="117"/>
+      <c r="T97" s="117"/>
+      <c r="U97" s="117"/>
+      <c r="V97" s="117"/>
+      <c r="W97" s="117"/>
+      <c r="X97" s="117"/>
+      <c r="Y97" s="118"/>
       <c r="Z97" s="76"/>
       <c r="AA97" s="76"/>
       <c r="AB97" s="76"/>
@@ -9982,13 +10098,13 @@
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
       <c r="R98" s="84"/>
-      <c r="S98" s="129"/>
-      <c r="T98" s="129"/>
-      <c r="U98" s="129"/>
-      <c r="V98" s="129"/>
-      <c r="W98" s="129"/>
-      <c r="X98" s="129"/>
-      <c r="Y98" s="130"/>
+      <c r="S98" s="117"/>
+      <c r="T98" s="117"/>
+      <c r="U98" s="117"/>
+      <c r="V98" s="117"/>
+      <c r="W98" s="117"/>
+      <c r="X98" s="117"/>
+      <c r="Y98" s="118"/>
       <c r="Z98" s="102"/>
       <c r="AA98" s="102"/>
       <c r="AB98" s="102"/>
@@ -39731,33 +39847,14 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="S87:Y87"/>
-    <mergeCell ref="S97:Y97"/>
-    <mergeCell ref="S98:Y98"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="S61:X61"/>
-    <mergeCell ref="S62:Y62"/>
-    <mergeCell ref="S83:Y83"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="R70:R77"/>
-    <mergeCell ref="R64:R68"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="S57:Y57"/>
-    <mergeCell ref="S58:Y58"/>
-    <mergeCell ref="S60:Y60"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="C35:O35"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="S10:AE10"/>
+    <mergeCell ref="A5:O6"/>
+    <mergeCell ref="Q5:AE6"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="Q9:R9"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="Q31:R31"/>
     <mergeCell ref="A12:A16"/>
@@ -39773,14 +39870,33 @@
     <mergeCell ref="Q27:Q29"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="S10:AE10"/>
-    <mergeCell ref="A5:O6"/>
-    <mergeCell ref="Q5:AE6"/>
-    <mergeCell ref="A8:O8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S57:Y57"/>
+    <mergeCell ref="S58:Y58"/>
+    <mergeCell ref="S60:Y60"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="C35:O35"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="S87:Y87"/>
+    <mergeCell ref="S97:Y97"/>
+    <mergeCell ref="S98:Y98"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="S61:X61"/>
+    <mergeCell ref="S62:Y62"/>
+    <mergeCell ref="S83:Y83"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="R70:R77"/>
+    <mergeCell ref="R64:R68"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
